--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.36285260156874</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H2">
-        <v>5.36285260156874</v>
+        <v>16.455039</v>
       </c>
       <c r="I2">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J2">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05193282792847</v>
+        <v>1.199522666666667</v>
       </c>
       <c r="N2">
-        <v>1.05193282792847</v>
+        <v>3.598568</v>
       </c>
       <c r="O2">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="P2">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="Q2">
-        <v>5.641360702931758</v>
+        <v>6.579397420461332</v>
       </c>
       <c r="R2">
-        <v>5.641360702931758</v>
+        <v>59.21457678415199</v>
       </c>
       <c r="S2">
-        <v>0.06447936017923891</v>
+        <v>0.06359640417167084</v>
       </c>
       <c r="T2">
-        <v>0.06447936017923891</v>
+        <v>0.06359640417167085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.36285260156874</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H3">
-        <v>5.36285260156874</v>
+        <v>16.455039</v>
       </c>
       <c r="I3">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J3">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03451107503657</v>
+        <v>2.250404</v>
       </c>
       <c r="N3">
-        <v>2.03451107503657</v>
+        <v>6.751212</v>
       </c>
       <c r="O3">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="P3">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="Q3">
-        <v>10.91078301168028</v>
+        <v>12.343495195252</v>
       </c>
       <c r="R3">
-        <v>10.91078301168028</v>
+        <v>111.091456757268</v>
       </c>
       <c r="S3">
-        <v>0.1247075563315854</v>
+        <v>0.1193121283245542</v>
       </c>
       <c r="T3">
-        <v>0.1247075563315854</v>
+        <v>0.1193121283245542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.36285260156874</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H4">
-        <v>5.36285260156874</v>
+        <v>16.455039</v>
       </c>
       <c r="I4">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J4">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.893146604851482</v>
+        <v>1.063309333333333</v>
       </c>
       <c r="N4">
-        <v>0.893146604851482</v>
+        <v>3.189928</v>
       </c>
       <c r="O4">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="P4">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="Q4">
-        <v>4.789813593410058</v>
+        <v>5.832265516354667</v>
       </c>
       <c r="R4">
-        <v>4.789813593410058</v>
+        <v>52.490389647192</v>
       </c>
       <c r="S4">
-        <v>0.05474638693469797</v>
+        <v>0.05637463301138944</v>
       </c>
       <c r="T4">
-        <v>0.05474638693469797</v>
+        <v>0.05637463301138944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.36285260156874</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H5">
-        <v>5.36285260156874</v>
+        <v>16.455039</v>
       </c>
       <c r="I5">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J5">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.530751167513328</v>
+        <v>0.6100566666666666</v>
       </c>
       <c r="N5">
-        <v>0.530751167513328</v>
+        <v>1.83017</v>
       </c>
       <c r="O5">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="P5">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="Q5">
-        <v>2.846340279484497</v>
+        <v>3.346168747403333</v>
       </c>
       <c r="R5">
-        <v>2.846340279484497</v>
+        <v>30.11551872663</v>
       </c>
       <c r="S5">
-        <v>0.03253296673233067</v>
+        <v>0.0323440410248929</v>
       </c>
       <c r="T5">
-        <v>0.03253296673233067</v>
+        <v>0.03234404102489291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.24981502572528</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H6">
-        <v>6.24981502572528</v>
+        <v>19.628437</v>
       </c>
       <c r="I6">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J6">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05193282792847</v>
+        <v>1.199522666666667</v>
       </c>
       <c r="N6">
-        <v>1.05193282792847</v>
+        <v>3.598568</v>
       </c>
       <c r="O6">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="P6">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="Q6">
-        <v>6.574385594041037</v>
+        <v>7.848251697579554</v>
       </c>
       <c r="R6">
-        <v>6.574385594041037</v>
+        <v>70.63426527821599</v>
       </c>
       <c r="S6">
-        <v>0.07514360435330236</v>
+        <v>0.07586113972201332</v>
       </c>
       <c r="T6">
-        <v>0.07514360435330236</v>
+        <v>0.07586113972201332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.24981502572528</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H7">
-        <v>6.24981502572528</v>
+        <v>19.628437</v>
       </c>
       <c r="I7">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J7">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.03451107503657</v>
+        <v>2.250404</v>
       </c>
       <c r="N7">
-        <v>2.03451107503657</v>
+        <v>6.751212</v>
       </c>
       <c r="O7">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="P7">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="Q7">
-        <v>12.71531788676805</v>
+        <v>14.72397104618267</v>
       </c>
       <c r="R7">
-        <v>12.71531788676805</v>
+        <v>132.515739415644</v>
       </c>
       <c r="S7">
-        <v>0.1453329444770931</v>
+        <v>0.1423217893409081</v>
       </c>
       <c r="T7">
-        <v>0.1453329444770931</v>
+        <v>0.1423217893409081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.24981502572528</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H8">
-        <v>6.24981502572528</v>
+        <v>19.628437</v>
       </c>
       <c r="I8">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J8">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.893146604851482</v>
+        <v>1.063309333333333</v>
       </c>
       <c r="N8">
-        <v>0.893146604851482</v>
+        <v>3.189928</v>
       </c>
       <c r="O8">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="P8">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="Q8">
-        <v>5.582001071176311</v>
+        <v>6.957033420281778</v>
       </c>
       <c r="R8">
-        <v>5.582001071176311</v>
+        <v>62.61330078253599</v>
       </c>
       <c r="S8">
-        <v>0.06380089424209767</v>
+        <v>0.06724663080179744</v>
       </c>
       <c r="T8">
-        <v>0.06380089424209767</v>
+        <v>0.06724663080179742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.24981502572528</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H9">
-        <v>6.24981502572528</v>
+        <v>19.628437</v>
       </c>
       <c r="I9">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J9">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.530751167513328</v>
+        <v>0.6100566666666666</v>
       </c>
       <c r="N9">
-        <v>0.530751167513328</v>
+        <v>1.83017</v>
       </c>
       <c r="O9">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="P9">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="Q9">
-        <v>3.317096621646032</v>
+        <v>3.991486282698888</v>
       </c>
       <c r="R9">
-        <v>3.317096621646032</v>
+        <v>35.92337654428999</v>
       </c>
       <c r="S9">
-        <v>0.0379135955099091</v>
+        <v>0.03858167529001456</v>
       </c>
       <c r="T9">
-        <v>0.0379135955099091</v>
+        <v>0.03858167529001456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.78216094767115</v>
+        <v>2.959658333333334</v>
       </c>
       <c r="H10">
-        <v>2.78216094767115</v>
+        <v>8.878975000000001</v>
       </c>
       <c r="I10">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="J10">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05193282792847</v>
+        <v>1.199522666666667</v>
       </c>
       <c r="N10">
-        <v>1.05193282792847</v>
+        <v>3.598568</v>
       </c>
       <c r="O10">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="P10">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="Q10">
-        <v>2.926646433435865</v>
+        <v>3.550177256422222</v>
       </c>
       <c r="R10">
-        <v>2.926646433435865</v>
+        <v>31.9515953078</v>
       </c>
       <c r="S10">
-        <v>0.03345084624720528</v>
+        <v>0.03431598568257183</v>
       </c>
       <c r="T10">
-        <v>0.03345084624720528</v>
+        <v>0.03431598568257184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.78216094767115</v>
+        <v>2.959658333333334</v>
       </c>
       <c r="H11">
-        <v>2.78216094767115</v>
+        <v>8.878975000000001</v>
       </c>
       <c r="I11">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="J11">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.03451107503657</v>
+        <v>2.250404</v>
       </c>
       <c r="N11">
-        <v>2.03451107503657</v>
+        <v>6.751212</v>
       </c>
       <c r="O11">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="P11">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="Q11">
-        <v>5.660337260571194</v>
+        <v>6.660426951966667</v>
       </c>
       <c r="R11">
-        <v>5.660337260571194</v>
+        <v>59.9438425677</v>
       </c>
       <c r="S11">
-        <v>0.06469625754840722</v>
+        <v>0.06437963499147638</v>
       </c>
       <c r="T11">
-        <v>0.06469625754840722</v>
+        <v>0.06437963499147638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.78216094767115</v>
+        <v>2.959658333333334</v>
       </c>
       <c r="H12">
-        <v>2.78216094767115</v>
+        <v>8.878975000000001</v>
       </c>
       <c r="I12">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="J12">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.893146604851482</v>
+        <v>1.063309333333333</v>
       </c>
       <c r="N12">
-        <v>0.893146604851482</v>
+        <v>3.189928</v>
       </c>
       <c r="O12">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="P12">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="Q12">
-        <v>2.48487760456287</v>
+        <v>3.147032329311112</v>
       </c>
       <c r="R12">
-        <v>2.48487760456287</v>
+        <v>28.3232909638</v>
       </c>
       <c r="S12">
-        <v>0.02840153759050849</v>
+        <v>0.0304191899601272</v>
       </c>
       <c r="T12">
-        <v>0.02840153759050849</v>
+        <v>0.0304191899601272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.78216094767115</v>
+        <v>2.959658333333334</v>
       </c>
       <c r="H13">
-        <v>2.78216094767115</v>
+        <v>8.878975000000001</v>
       </c>
       <c r="I13">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="J13">
-        <v>0.1434262168630414</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.530751167513328</v>
+        <v>0.6100566666666666</v>
       </c>
       <c r="N13">
-        <v>0.530751167513328</v>
+        <v>1.83017</v>
       </c>
       <c r="O13">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="P13">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="Q13">
-        <v>1.47663517118645</v>
+        <v>1.805559297305555</v>
       </c>
       <c r="R13">
-        <v>1.47663517118645</v>
+        <v>16.25003367575</v>
       </c>
       <c r="S13">
-        <v>0.01687757547692036</v>
+        <v>0.01745252209119641</v>
       </c>
       <c r="T13">
-        <v>0.01687757547692036</v>
+        <v>0.01745252209119641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.00302635366238</v>
+        <v>5.205681333333334</v>
       </c>
       <c r="H14">
-        <v>5.00302635366238</v>
+        <v>15.617044</v>
       </c>
       <c r="I14">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="J14">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.05193282792847</v>
+        <v>1.199522666666667</v>
       </c>
       <c r="N14">
-        <v>1.05193282792847</v>
+        <v>3.598568</v>
       </c>
       <c r="O14">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="P14">
-        <v>0.2332268603246206</v>
+        <v>0.2341312013016629</v>
       </c>
       <c r="Q14">
-        <v>5.262847660408729</v>
+        <v>6.244332754776888</v>
       </c>
       <c r="R14">
-        <v>5.262847660408729</v>
+        <v>56.198994792992</v>
       </c>
       <c r="S14">
-        <v>0.06015304954487401</v>
+        <v>0.06035767172540686</v>
       </c>
       <c r="T14">
-        <v>0.06015304954487401</v>
+        <v>0.06035767172540687</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.00302635366238</v>
+        <v>5.205681333333334</v>
       </c>
       <c r="H15">
-        <v>5.00302635366238</v>
+        <v>15.617044</v>
       </c>
       <c r="I15">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="J15">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.03451107503657</v>
+        <v>2.250404</v>
       </c>
       <c r="N15">
-        <v>2.03451107503657</v>
+        <v>6.751212</v>
       </c>
       <c r="O15">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="P15">
-        <v>0.4510769297511772</v>
+        <v>0.4392495503217397</v>
       </c>
       <c r="Q15">
-        <v>10.17871252522594</v>
+        <v>11.71488609525867</v>
       </c>
       <c r="R15">
-        <v>10.17871252522594</v>
+        <v>105.433974857328</v>
       </c>
       <c r="S15">
-        <v>0.1163401713940916</v>
+        <v>0.113235997664801</v>
       </c>
       <c r="T15">
-        <v>0.1163401713940916</v>
+        <v>0.113235997664801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.00302635366238</v>
+        <v>5.205681333333334</v>
       </c>
       <c r="H16">
-        <v>5.00302635366238</v>
+        <v>15.617044</v>
       </c>
       <c r="I16">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="J16">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.893146604851482</v>
+        <v>1.063309333333333</v>
       </c>
       <c r="N16">
-        <v>0.893146604851482</v>
+        <v>3.189928</v>
       </c>
       <c r="O16">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="P16">
-        <v>0.1980219391663192</v>
+        <v>0.2075441327510863</v>
       </c>
       <c r="Q16">
-        <v>4.468436001756044</v>
+        <v>5.535249548092446</v>
       </c>
       <c r="R16">
-        <v>4.468436001756044</v>
+        <v>49.817245932832</v>
       </c>
       <c r="S16">
-        <v>0.05107312039901512</v>
+        <v>0.05350367897777219</v>
       </c>
       <c r="T16">
-        <v>0.05107312039901512</v>
+        <v>0.05350367897777219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.00302635366238</v>
+        <v>5.205681333333334</v>
       </c>
       <c r="H17">
-        <v>5.00302635366238</v>
+        <v>15.617044</v>
       </c>
       <c r="I17">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="J17">
-        <v>0.2579164743767035</v>
+        <v>0.2577942255873873</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.530751167513328</v>
+        <v>0.6100566666666666</v>
       </c>
       <c r="N17">
-        <v>0.530751167513328</v>
+        <v>1.83017</v>
       </c>
       <c r="O17">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="P17">
-        <v>0.1176742707578829</v>
+        <v>0.1190751156255111</v>
       </c>
       <c r="Q17">
-        <v>2.655362078306256</v>
+        <v>3.175760601942222</v>
       </c>
       <c r="R17">
-        <v>2.655362078306256</v>
+        <v>28.58184541748</v>
       </c>
       <c r="S17">
-        <v>0.03035013303872278</v>
+        <v>0.03069687721940724</v>
       </c>
       <c r="T17">
-        <v>0.03035013303872278</v>
+        <v>0.03069687721940724</v>
       </c>
     </row>
   </sheetData>
